--- a/example_input_2.xlsx
+++ b/example_input_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/archondo ignacio/Documents/personal/nba_fantasy_score_predictor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749B1E31-F6E6-4842-BF6E-33D434D90D3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F623C3-0DC9-4C40-9520-9048D414C090}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20380" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{549B4CE5-B1BE-0043-84B8-2BFE9D020279}"/>
+    <workbookView xWindow="-29860" yWindow="8800" windowWidth="28040" windowHeight="17440" xr2:uid="{549B4CE5-B1BE-0043-84B8-2BFE9D020279}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -578,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -592,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -606,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -620,7 +620,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -634,7 +634,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -662,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -676,7 +676,7 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -690,7 +690,7 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -704,7 +704,7 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -718,7 +718,7 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -732,7 +732,7 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -746,7 +746,7 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -760,7 +760,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -774,7 +774,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -788,7 +788,7 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -802,7 +802,7 @@
         <v>32</v>
       </c>
       <c r="B23">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -816,7 +816,7 @@
         <v>33</v>
       </c>
       <c r="B24">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -830,7 +830,7 @@
         <v>34</v>
       </c>
       <c r="B25">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
